--- a/Milestone-1/Q2E_Training_Batch6_Team3_Details.xlsx
+++ b/Milestone-1/Q2E_Training_Batch6_Team3_Details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Automation\Q2E_Training_Batch6_Team3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Automation\Q2E_Training_Batch6_Team3\Milestone-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920142A2-805E-4B04-ADE0-B245907D8C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C43E7C9-9CED-4931-97AB-5A2763BF1312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{75F1C810-BB7F-489C-803B-19977A16D3AC}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>S.No</t>
   </si>
   <si>
     <t>Team Member Name</t>
-  </si>
-  <si>
-    <t>Contribution</t>
   </si>
   <si>
     <t>Jeevan Gajawada</t>
@@ -444,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B6C627-E6B1-4D95-823E-694FD92803C7}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,64 +449,55 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
